--- a/biology/Médecine/1286_en_santé_et_médecine/1286_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1286_en_santé_et_médecine/1286_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1286_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1286_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1286 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1286_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1286_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,13 +523,15 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Fin de la construction de l'hôpital du Saint-Esprit (Heiligen-Geist-Hospital) de Lübeck[2].
-Fondation de l'hôtel-Dieu des Montils, en Sologne, par Alix de Châtillon[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Fin de la construction de l'hôpital du Saint-Esprit (Heiligen-Geist-Hospital) de Lübeck.
+Fondation de l'hôtel-Dieu des Montils, en Sologne, par Alix de Châtillon.
 Vers 1286 :
-Le sultan Abu Yusuf Yaqub fait construire le maristan de Sidi Frej à Fès au Maroc[4].
-Invention, vraisemblablement par un artisan de Pise, des lunettes de vue : « deux lentilles de verre convexes, serties dans des anneaux […] et propres à être maintenues devant les yeux[5] ».</t>
+Le sultan Abu Yusuf Yaqub fait construire le maristan de Sidi Frej à Fès au Maroc.
+Invention, vraisemblablement par un artisan de Pise, des lunettes de vue : « deux lentilles de verre convexes, serties dans des anneaux […] et propres à être maintenues devant les yeux ».</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1286_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1286_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Rédaction de son Traité d'hygiène par Thomas le Bourguignon († 1301), médecin français né à Thonon dans le comté de Savoie[6],[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rédaction de son Traité d'hygiène par Thomas le Bourguignon († 1301), médecin français né à Thonon dans le comté de Savoie,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1286_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1286_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1286 ou 1287 : Kalonymus ben Kalonymus (mort après le 18 avril 1328), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée[8],[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1286 ou 1287 : Kalonymus ben Kalonymus (mort après le 18 avril 1328), rabbin provençal, traducteur de l'arabe en hébreu de nombreux ouvrages scientifiques, philosophiques et médicaux, n'ayant, semble-t-il, jamais pratiqué la médecine, qu'il avait cependant étudiée,.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1286_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1286_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,12 +623,14 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">30 juillet : Bar Hebraeus (né en 1226), historien, médecin et philosophe chrétien de langue syriaque[10].
-Ibn al-Quff (en) (né en 1233), médecin et chirurgien arabe, auteur du premier traité de langue arabe exclusivement consacré à la chirurgie[11].
-Bruno de Longoburgo (it) (né à une date inconnue), médecin et chirurgien italien, auteur d'une « Petite Chirurgie » (Chirurgia parva) et d'une « Grande Chirurgie » (Chirurgia magna, 1253[12],[13] ).
-1286 au plus tard : Bertrand, médecin, cité dans les testaments du doyen de Montbrison et de Pierre, chevalier de Marcilly, et peut-être identifiable à Bertrand de Cossat, père d'un juge du Forez[14].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30 juillet : Bar Hebraeus (né en 1226), historien, médecin et philosophe chrétien de langue syriaque.
+Ibn al-Quff (en) (né en 1233), médecin et chirurgien arabe, auteur du premier traité de langue arabe exclusivement consacré à la chirurgie.
+Bruno de Longoburgo (it) (né à une date inconnue), médecin et chirurgien italien, auteur d'une « Petite Chirurgie » (Chirurgia parva) et d'une « Grande Chirurgie » (Chirurgia magna, 1253, ).
+1286 au plus tard : Bertrand, médecin, cité dans les testaments du doyen de Montbrison et de Pierre, chevalier de Marcilly, et peut-être identifiable à Bertrand de Cossat, père d'un juge du Forez.
 </t>
         </is>
       </c>
